--- a/BackTest/2020-01-16 BackTest XLM.xlsx
+++ b/BackTest/2020-01-16 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,17 +517,11 @@
         <v>-1130555.0663603</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,17 +550,11 @@
         <v>-1448486.2326603</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>55.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,17 +583,11 @@
         <v>-1365005.2216603</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,17 +616,11 @@
         <v>-1415392.3135603</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>55.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,17 +649,11 @@
         <v>-1397358.5337603</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>54.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,17 +682,11 @@
         <v>-1397358.5337603</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>55.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,17 +715,11 @@
         <v>-1282902.2105603</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>55.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -790,17 +748,11 @@
         <v>-1162901.0456603</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>55.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -829,17 +781,11 @@
         <v>-1162901.0456603</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>55.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -868,17 +814,11 @@
         <v>-1170363.6570603</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>55.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -907,17 +847,11 @@
         <v>-1168242.6570603</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>55.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -946,17 +880,11 @@
         <v>-1192627.0419603</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>55.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -985,17 +913,11 @@
         <v>-1185601.9183603</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>55.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1024,17 +946,11 @@
         <v>-1211665.0613603</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>55.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1063,17 +979,11 @@
         <v>-1293938.9681603</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>55.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1102,7 +1012,7 @@
         <v>-1181423.7300603</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>55.07</v>
@@ -1110,7 +1020,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1141,7 +1051,7 @@
         <v>-1201237.9378603</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>55.28</v>
@@ -1180,7 +1090,7 @@
         <v>-1229329.8236603</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>55.11</v>
@@ -1219,7 +1129,7 @@
         <v>-1217147.45278462</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>55</v>
@@ -1258,7 +1168,7 @@
         <v>-1220053.15908462</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>55.18</v>
@@ -1297,7 +1207,7 @@
         <v>-1230887.98268462</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>55.13</v>
@@ -1336,7 +1246,7 @@
         <v>-1266621.13788462</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>55</v>
@@ -1375,7 +1285,7 @@
         <v>-1236745.60378462</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>54.93</v>
@@ -1414,7 +1324,7 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>55.14</v>
@@ -1453,7 +1363,7 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>55.24</v>
@@ -1492,7 +1402,7 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>55.24</v>
@@ -1531,7 +1441,7 @@
         <v>-892487.4750846202</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>55.24</v>
@@ -1570,7 +1480,7 @@
         <v>-714530.1078846202</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>55.29</v>
@@ -1609,7 +1519,7 @@
         <v>-714530.1078846202</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>55.42</v>
@@ -1648,7 +1558,7 @@
         <v>-724530.1078846202</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>55.42</v>
@@ -1687,7 +1597,7 @@
         <v>-771306.6130846202</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>55.41</v>
@@ -1726,7 +1636,7 @@
         <v>-771270.5510578703</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>55.29</v>
@@ -1765,9 +1675,11 @@
         <v>-770228.5510578703</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>55.46</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1802,9 +1714,11 @@
         <v>-721001.1994578702</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>55.66</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1839,9 +1753,11 @@
         <v>-664442.1133578703</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>56.27</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1876,9 +1792,11 @@
         <v>-615346.8095578703</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>56.69</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1913,11 +1831,9 @@
         <v>-531059.4772578703</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>57.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1952,11 +1868,9 @@
         <v>-304101.0731578702</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>57.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1991,11 +1905,9 @@
         <v>-287812.9106578702</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>57.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2030,11 +1942,9 @@
         <v>-295508.1308578702</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>57.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2476,11 +2386,9 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>57.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2589,11 +2497,9 @@
         <v>-569763.4947578702</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>57.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2628,11 +2534,9 @@
         <v>-427154.5184578702</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2667,11 +2571,9 @@
         <v>-396737.0414578702</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>57.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2706,11 +2608,9 @@
         <v>-396737.0414578702</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>57.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2745,11 +2645,9 @@
         <v>-444489.5873578702</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>57.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2784,11 +2682,9 @@
         <v>-463121.7392578702</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>57.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2823,11 +2719,9 @@
         <v>-463836.4450578702</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>57.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2862,11 +2756,9 @@
         <v>-472360.9410578702</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>57.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -3197,11 +3089,9 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>57.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3236,11 +3126,9 @@
         <v>-435157.2033578702</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>57.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3275,11 +3163,9 @@
         <v>-439222.4388578702</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>56.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3314,11 +3200,9 @@
         <v>-437017.8060578702</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>56.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -10457,16 +10341,18 @@
         <v>-1520958.512285979</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L270" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
       <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
@@ -10492,11 +10378,15 @@
         <v>-1520958.512285979</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10525,11 +10415,15 @@
         <v>-1520958.512285979</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10558,11 +10452,15 @@
         <v>-1529745.91298598</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10591,11 +10489,15 @@
         <v>-1529720.16188598</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10624,11 +10526,15 @@
         <v>-1529720.16188598</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10657,11 +10563,15 @@
         <v>-1529720.16188598</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10690,11 +10600,15 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10723,11 +10637,15 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10756,11 +10674,15 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10789,11 +10711,15 @@
         <v>-1528599.12561505</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10822,11 +10748,15 @@
         <v>-1449833.0206712</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10855,11 +10785,15 @@
         <v>-1449843.6517712</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10888,11 +10822,15 @@
         <v>-1449843.6517712</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10921,11 +10859,15 @@
         <v>-1465034.6021712</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10954,11 +10896,15 @@
         <v>-1441244.1304712</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10987,11 +10933,15 @@
         <v>-1441244.1304712</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11020,11 +10970,15 @@
         <v>-1559286.351871199</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11053,11 +11007,15 @@
         <v>-1559286.351871199</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11086,11 +11044,15 @@
         <v>-1565811.202171199</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11119,11 +11081,15 @@
         <v>-1565811.202171199</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11152,11 +11118,15 @@
         <v>-1722832.8676712</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11185,11 +11155,15 @@
         <v>-1742326.8659712</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11222,7 +11196,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11255,7 +11233,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11288,7 +11270,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11321,7 +11307,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11354,7 +11344,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11383,11 +11377,15 @@
         <v>-1712953.64440556</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11420,7 +11418,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11453,7 +11455,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11486,7 +11492,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11519,7 +11529,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11552,7 +11566,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11585,7 +11603,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11618,7 +11640,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11651,7 +11677,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11684,7 +11714,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11717,7 +11751,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11750,7 +11788,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11783,7 +11825,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11816,7 +11862,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11849,7 +11899,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11882,7 +11936,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11915,7 +11973,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11948,7 +12010,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11981,7 +12047,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12014,7 +12084,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12047,7 +12121,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12080,7 +12158,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +12195,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12146,7 +12232,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12179,7 +12269,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12212,7 +12306,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12245,7 +12343,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12278,7 +12380,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12311,7 +12417,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12344,7 +12454,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12377,7 +12491,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12410,7 +12528,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12443,7 +12565,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12476,7 +12602,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12509,7 +12639,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12542,7 +12676,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12575,7 +12713,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12608,7 +12750,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12641,7 +12787,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12674,7 +12824,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12707,7 +12861,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12740,7 +12898,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12773,7 +12935,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12806,7 +12972,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12839,7 +13009,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12872,7 +13046,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12905,7 +13083,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12938,7 +13120,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12971,7 +13157,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13004,7 +13194,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13037,7 +13231,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13070,7 +13268,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13103,7 +13305,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13136,7 +13342,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13169,7 +13379,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13202,7 +13416,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13235,7 +13453,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13268,7 +13490,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13301,7 +13527,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13334,7 +13564,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13367,7 +13601,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13400,7 +13638,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13433,7 +13675,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13466,7 +13712,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13499,7 +13749,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13532,7 +13786,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13565,7 +13823,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13598,7 +13860,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13631,7 +13897,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13664,7 +13934,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13697,7 +13971,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13730,7 +14008,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13763,7 +14045,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13796,7 +14082,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13829,7 +14119,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13862,7 +14156,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13895,7 +14193,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13928,7 +14230,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13961,7 +14267,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13994,7 +14304,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14027,7 +14341,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14060,7 +14378,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14093,7 +14415,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14126,7 +14452,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14159,7 +14489,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14192,7 +14526,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14225,7 +14563,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14258,7 +14600,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14287,11 +14633,15 @@
         <v>-852397.8497116504</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14320,11 +14670,15 @@
         <v>-698968.2477116503</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14353,11 +14707,15 @@
         <v>-586807.5761116503</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14386,11 +14744,15 @@
         <v>-586807.5761116503</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14419,11 +14781,15 @@
         <v>-543401.6421116503</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14452,11 +14818,15 @@
         <v>-492474.3466116503</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14489,7 +14859,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14518,11 +14892,15 @@
         <v>-1477129.96021165</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14551,11 +14929,15 @@
         <v>-1303891.662711651</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14584,11 +14966,15 @@
         <v>-1250122.523211651</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14617,11 +15003,15 @@
         <v>-1250122.523211651</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14650,11 +15040,15 @@
         <v>-1149755.700311651</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14683,11 +15077,15 @@
         <v>-1045970.527811651</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14716,11 +15114,15 @@
         <v>-922575.1319116505</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14749,11 +15151,15 @@
         <v>-539855.6072447505</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14782,11 +15188,15 @@
         <v>-600935.4740447504</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14815,11 +15225,15 @@
         <v>-562588.9460447504</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14848,11 +15262,15 @@
         <v>-567093.3778447504</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14881,11 +15299,15 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14914,11 +15336,15 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14947,11 +15373,15 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14980,11 +15410,15 @@
         <v>-292619.4665447504</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15013,11 +15447,15 @@
         <v>-256660.8525447504</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15046,11 +15484,15 @@
         <v>-256660.8525447504</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15079,11 +15521,15 @@
         <v>-304578.8910447504</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15112,11 +15558,15 @@
         <v>-263818.2281447504</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15145,11 +15595,15 @@
         <v>-263818.2281447504</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15182,7 +15636,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15215,7 +15673,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15248,7 +15710,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15277,14 +15743,16 @@
         <v>-908276.5840447505</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="inlineStr"/>
     </row>
     <row r="417">
@@ -15310,7 +15778,7 @@
         <v>-1355655.971498461</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15343,7 +15811,7 @@
         <v>-1386917.97721818</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15376,7 +15844,7 @@
         <v>-1470333.00421818</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15409,7 +15877,7 @@
         <v>-1658250.42701818</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15442,7 +15910,7 @@
         <v>-1674307.80531818</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15475,7 +15943,7 @@
         <v>-2092728.652718181</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15508,7 +15976,7 @@
         <v>-2620010.57231818</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15541,7 +16009,7 @@
         <v>-2620010.57231818</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15574,7 +16042,7 @@
         <v>-2585488.96581818</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15607,7 +16075,7 @@
         <v>-2632628.42901818</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15640,7 +16108,7 @@
         <v>-2632628.42901818</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15673,7 +16141,7 @@
         <v>-2545475.14804545</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15706,7 +16174,7 @@
         <v>-2548359.62034545</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15739,7 +16207,7 @@
         <v>-2526622.22594545</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15772,7 +16240,7 @@
         <v>-2526622.22594545</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15805,7 +16273,7 @@
         <v>-2526622.22594545</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15838,7 +16306,7 @@
         <v>-2491600.122801871</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15871,7 +16339,7 @@
         <v>-2497715.03414818</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15904,7 +16372,7 @@
         <v>-2482208.84992675</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16168,7 +16636,7 @@
         <v>-2593559.22747085</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16366,7 +16834,7 @@
         <v>-2386313.80097085</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16432,7 +16900,7 @@
         <v>-2375992.00097085</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16828,7 +17296,7 @@
         <v>-2300355.146123721</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16861,7 +17329,7 @@
         <v>-2300355.146123721</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18742,7 +19210,7 @@
         <v>-2686065.079238901</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -21646,7 +22114,7 @@
         <v>-3378280.604209841</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -27586,7 +28054,7 @@
         <v>-2303367.572962829</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28444,7 +28912,7 @@
         <v>-1782804.23682807</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -31546,7 +32014,7 @@
         <v>-1535896.431085969</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31579,7 +32047,7 @@
         <v>-1518359.201785969</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31612,7 +32080,7 @@
         <v>-1518359.201785969</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31645,7 +32113,7 @@
         <v>-1518359.201785969</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31678,7 +32146,7 @@
         <v>-1504941.390185969</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31711,7 +32179,7 @@
         <v>-1504941.390185969</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31876,7 +32344,7 @@
         <v>-1506548.886685969</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31909,7 +32377,7 @@
         <v>-1506548.886685969</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31942,7 +32410,7 @@
         <v>-1506548.886685969</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31975,7 +32443,7 @@
         <v>-1506548.886685969</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32008,7 +32476,7 @@
         <v>-1505759.742085969</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32041,7 +32509,7 @@
         <v>-1505759.742085969</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32074,7 +32542,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32107,7 +32575,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32140,7 +32608,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32173,7 +32641,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32206,7 +32674,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32239,7 +32707,7 @@
         <v>-1339368.378885969</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32272,7 +32740,7 @@
         <v>-1147718.511085969</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32305,7 +32773,7 @@
         <v>-1108710.765885969</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32338,7 +32806,7 @@
         <v>-1090200.029785969</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32371,7 +32839,7 @@
         <v>-1089389.394247709</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32404,7 +32872,7 @@
         <v>-1127547.608247709</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32437,7 +32905,7 @@
         <v>-1127415.224001519</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32470,7 +32938,7 @@
         <v>-1127415.224001519</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32503,7 +32971,7 @@
         <v>-1185248.025301519</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32536,7 +33004,7 @@
         <v>-1230884.533701519</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32569,7 +33037,7 @@
         <v>-1230884.533701519</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32602,7 +33070,7 @@
         <v>-1381771.362501519</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32635,7 +33103,7 @@
         <v>-1341647.635101519</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32668,7 +33136,7 @@
         <v>-1341637.635101519</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32701,7 +33169,7 @@
         <v>-1341527.638344589</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32734,7 +33202,7 @@
         <v>-1352182.113044589</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32767,7 +33235,7 @@
         <v>-1385558.706144589</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32800,7 +33268,7 @@
         <v>-1380400.447644589</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32833,7 +33301,7 @@
         <v>-1375628.493344588</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32866,7 +33334,7 @@
         <v>-1386282.968044588</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32899,7 +33367,7 @@
         <v>-1385776.968144588</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32932,7 +33400,7 @@
         <v>-1386239.968144588</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32965,7 +33433,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32998,7 +33466,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33031,7 +33499,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33064,7 +33532,7 @@
         <v>-1416820.699544589</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33097,7 +33565,7 @@
         <v>-1323978.687614439</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33130,7 +33598,7 @@
         <v>-1265272.987254489</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33163,7 +33631,7 @@
         <v>-1232655.458744589</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33196,7 +33664,7 @@
         <v>-1232655.458744589</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33229,7 +33697,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33262,7 +33730,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33295,7 +33763,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33328,7 +33796,7 @@
         <v>-1155548.904231139</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33361,7 +33829,7 @@
         <v>-1155548.904231139</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33394,7 +33862,7 @@
         <v>-1208516.775431139</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33427,7 +33895,7 @@
         <v>-1208506.775431139</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33460,7 +33928,7 @@
         <v>-1223341.967431139</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33493,7 +33961,7 @@
         <v>-1223532.943831139</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33526,7 +33994,7 @@
         <v>-1223477.949479039</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33559,7 +34027,7 @@
         <v>-1311539.101582619</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33592,7 +34060,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33625,7 +34093,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33658,7 +34126,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33691,7 +34159,7 @@
         <v>-1493653.791076169</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33724,7 +34192,7 @@
         <v>-1437668.537076169</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33757,7 +34225,7 @@
         <v>-1274572.200551749</v>
       </c>
       <c r="H976" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33790,7 +34258,7 @@
         <v>-1193489.546351749</v>
       </c>
       <c r="H977" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33823,7 +34291,7 @@
         <v>-1098756.107516769</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33856,7 +34324,7 @@
         <v>-1082888.422734499</v>
       </c>
       <c r="H979" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33889,7 +34357,7 @@
         <v>-931762.200434499</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33922,7 +34390,7 @@
         <v>-915065.345834499</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33955,7 +34423,7 @@
         <v>-854521.056234499</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33988,7 +34456,7 @@
         <v>-1006259.096534499</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34021,7 +34489,7 @@
         <v>-1006223.096534499</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34054,7 +34522,7 @@
         <v>-1065891.187534499</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34087,7 +34555,7 @@
         <v>-1074671.187534499</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34120,7 +34588,7 @@
         <v>-1074821.187534499</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34153,7 +34621,7 @@
         <v>-1064166.143124859</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34186,7 +34654,7 @@
         <v>-1077236.098724859</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34219,7 +34687,7 @@
         <v>-1061788.207724859</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34252,7 +34720,7 @@
         <v>-1027981.504324859</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34285,7 +34753,7 @@
         <v>-1027981.504324859</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34318,7 +34786,7 @@
         <v>-1035213.092024859</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34351,7 +34819,7 @@
         <v>-1060734.483784169</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34384,7 +34852,7 @@
         <v>-1082298.983184169</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34417,7 +34885,7 @@
         <v>-1082708.629884169</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34450,7 +34918,7 @@
         <v>-1075352.629884169</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34483,7 +34951,7 @@
         <v>-1076052.629884169</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34516,7 +34984,7 @@
         <v>-1184132.385284169</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34549,7 +35017,7 @@
         <v>-2312809.327884169</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34582,7 +35050,7 @@
         <v>-2319125.900584169</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34615,7 +35083,7 @@
         <v>-2319099.650584169</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34648,7 +35116,7 @@
         <v>-2342237.447084169</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34681,7 +35149,7 @@
         <v>-2317175.885984169</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34714,7 +35182,7 @@
         <v>-2279433.980418869</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34747,7 +35215,7 @@
         <v>-2285418.691759789</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34758,6 +35226,6 @@
       <c r="M1006" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XLM.xlsx
+++ b/BackTest/2020-01-16 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,17 +1012,11 @@
         <v>-1181423.7300603</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>55.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1051,17 +1045,11 @@
         <v>-1201237.9378603</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1090,17 +1078,11 @@
         <v>-1229329.8236603</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>55.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,17 +1111,11 @@
         <v>-1217147.45278462</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1168,17 +1144,11 @@
         <v>-1220053.15908462</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>55.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1207,17 +1177,11 @@
         <v>-1230887.98268462</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>55.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1246,17 +1210,11 @@
         <v>-1266621.13788462</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1285,17 +1243,11 @@
         <v>-1236745.60378462</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>54.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1324,17 +1276,11 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>55.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1363,17 +1309,11 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>55.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1402,17 +1342,11 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>55.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1441,17 +1375,11 @@
         <v>-892487.4750846202</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>55.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1480,17 +1408,11 @@
         <v>-714530.1078846202</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>55.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1519,17 +1441,11 @@
         <v>-714530.1078846202</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>55.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1558,17 +1474,11 @@
         <v>-724530.1078846202</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>55.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1597,17 +1507,11 @@
         <v>-771306.6130846202</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>55.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1636,17 +1540,11 @@
         <v>-771270.5510578703</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>55.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1675,17 +1573,11 @@
         <v>-770228.5510578703</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>55.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1714,17 +1606,11 @@
         <v>-721001.1994578702</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1753,17 +1639,11 @@
         <v>-664442.1133578703</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>56.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1792,17 +1672,11 @@
         <v>-615346.8095578703</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>56.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1835,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1872,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1909,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1946,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1983,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2020,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2057,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2094,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2127,15 +1969,11 @@
         <v>-359691.2992578702</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2164,15 +2002,11 @@
         <v>-606679.7814578703</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2201,15 +2035,11 @@
         <v>-622154.6097578703</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2238,15 +2068,11 @@
         <v>-622154.6097578703</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2275,15 +2101,11 @@
         <v>-625659.6921578703</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2312,15 +2134,11 @@
         <v>-625659.6921578703</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2349,15 +2167,11 @@
         <v>-609899.6218578703</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2386,15 +2200,11 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2423,15 +2233,11 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2460,15 +2266,11 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2497,15 +2299,11 @@
         <v>-569763.4947578702</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2534,15 +2332,11 @@
         <v>-427154.5184578702</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2571,15 +2365,11 @@
         <v>-396737.0414578702</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2608,15 +2398,11 @@
         <v>-396737.0414578702</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2645,15 +2431,11 @@
         <v>-444489.5873578702</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2682,15 +2464,11 @@
         <v>-463121.7392578702</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2719,15 +2497,11 @@
         <v>-463836.4450578702</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2756,15 +2530,11 @@
         <v>-472360.9410578702</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2793,15 +2563,11 @@
         <v>-497770.4932578701</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2830,15 +2596,11 @@
         <v>-367153.5092578701</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2867,15 +2629,11 @@
         <v>-363327.3871578702</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2904,15 +2662,11 @@
         <v>-363327.3871578702</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2941,15 +2695,11 @@
         <v>-363888.3871578702</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2978,15 +2728,11 @@
         <v>-363094.3871578702</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3015,15 +2761,11 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3052,15 +2794,11 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3089,15 +2827,11 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3126,15 +2860,11 @@
         <v>-435157.2033578702</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3163,15 +2893,11 @@
         <v>-439222.4388578702</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3200,15 +2926,11 @@
         <v>-437017.8060578702</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3237,15 +2959,11 @@
         <v>-425591.8060578702</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3274,15 +2992,11 @@
         <v>-413884.8060578702</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3311,15 +3025,11 @@
         <v>-405525.9259578701</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3348,15 +3058,11 @@
         <v>-369429.2414578701</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3385,15 +3091,11 @@
         <v>-369429.2414578701</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3422,15 +3124,11 @@
         <v>-208779.7041578701</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3459,15 +3157,11 @@
         <v>-66531.81411190011</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3496,15 +3190,11 @@
         <v>-85271.26321190011</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3533,15 +3223,11 @@
         <v>-14360.41262357011</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3570,15 +3256,11 @@
         <v>4208.714876429887</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3607,15 +3289,11 @@
         <v>-208532.5136235701</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3644,15 +3322,11 @@
         <v>-334226.5762218101</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3681,15 +3355,11 @@
         <v>-334226.5762218101</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3718,15 +3388,11 @@
         <v>-300191.6028218101</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3755,15 +3421,11 @@
         <v>-277459.6986218101</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3792,15 +3454,11 @@
         <v>-327149.5379218101</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3829,15 +3487,11 @@
         <v>-371527.4719218101</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3866,15 +3520,11 @@
         <v>-480617.9958218101</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3903,15 +3553,11 @@
         <v>-574065.1353218101</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3940,15 +3586,11 @@
         <v>-554050.8655218101</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3977,15 +3619,11 @@
         <v>-574035.0885218101</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4014,15 +3652,11 @@
         <v>-560486.6144218101</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4051,15 +3685,11 @@
         <v>-575900.0704218101</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4088,15 +3718,11 @@
         <v>-569654.1714218102</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4125,15 +3751,11 @@
         <v>-752184.6206218102</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4162,15 +3784,11 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4199,15 +3817,11 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4236,15 +3850,11 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4273,15 +3883,11 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4310,15 +3916,11 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4347,15 +3949,11 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4384,15 +3982,11 @@
         <v>-440890.0387561102</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4421,15 +4015,11 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4458,15 +4048,11 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4495,15 +4081,11 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4532,15 +4114,11 @@
         <v>-424865.6816561102</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4569,15 +4147,11 @@
         <v>-465435.9016561102</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4606,15 +4180,11 @@
         <v>-458491.2676561102</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4643,15 +4213,11 @@
         <v>-440127.4994561102</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4680,15 +4246,11 @@
         <v>-440127.4994561102</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4717,15 +4279,11 @@
         <v>-556823.8252561102</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4754,15 +4312,11 @@
         <v>-571299.0252561101</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4791,15 +4345,11 @@
         <v>-571995.9053561101</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4828,15 +4378,11 @@
         <v>-532757.4667561101</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4865,15 +4411,11 @@
         <v>-539241.7008561101</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4902,15 +4444,11 @@
         <v>-508211.0230561101</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4939,15 +4477,11 @@
         <v>-508211.0230561101</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4976,15 +4510,11 @@
         <v>-509690.3882561101</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5013,15 +4543,11 @@
         <v>-517170.4485561101</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5050,15 +4576,11 @@
         <v>-689856.0444561101</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5087,15 +4609,11 @@
         <v>-985734.2500248401</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5313,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5350,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5424,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5461,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5572,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5609,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5646,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5683,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5720,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5757,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5794,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5831,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5868,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5905,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5942,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5979,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6016,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6053,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6090,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6164,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6201,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6238,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6275,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6312,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6349,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6386,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6423,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6460,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6497,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6571,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6608,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6645,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6682,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6719,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6756,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6793,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6830,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6867,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6904,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6941,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6978,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7015,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7052,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7089,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7126,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7200,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7237,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7311,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7385,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7422,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7459,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7496,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7533,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7570,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7607,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7644,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7681,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7718,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7792,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7829,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7866,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7903,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7940,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7977,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8014,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8051,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8088,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8162,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8199,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8236,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8273,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8310,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8347,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8384,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8421,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8458,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8495,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8532,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8643,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8680,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8717,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8754,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8828,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8865,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8939,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8976,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9013,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9050,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9087,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9124,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9161,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9198,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9235,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9272,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9309,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9346,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9383,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9420,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9457,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9494,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9531,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9568,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9605,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9642,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9679,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9716,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9753,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9827,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9864,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9901,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9938,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9975,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10049,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10086,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10123,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10160,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10197,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10234,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10271,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10308,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10345,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10382,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10419,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10456,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10493,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10530,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10567,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10600,15 +9526,11 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10637,15 +9559,11 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10674,15 +9592,11 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10711,15 +9625,11 @@
         <v>-1528599.12561505</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10748,15 +9658,11 @@
         <v>-1449833.0206712</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10785,15 +9691,11 @@
         <v>-1449843.6517712</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10822,15 +9724,11 @@
         <v>-1449843.6517712</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10859,15 +9757,11 @@
         <v>-1465034.6021712</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10896,15 +9790,11 @@
         <v>-1441244.1304712</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10933,15 +9823,11 @@
         <v>-1441244.1304712</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10970,15 +9856,11 @@
         <v>-1559286.351871199</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11007,15 +9889,11 @@
         <v>-1559286.351871199</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11048,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11085,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11122,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11159,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11196,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11233,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11270,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11307,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11344,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11381,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11418,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11455,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11492,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11529,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11566,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11603,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11640,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11677,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11751,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11825,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11862,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11899,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11936,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11973,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12010,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12047,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12121,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12158,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12195,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12306,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12343,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12380,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12417,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12454,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12491,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12528,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12565,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12602,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12639,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12676,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12713,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12750,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12787,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12824,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12861,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12898,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12935,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12972,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13009,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13046,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13083,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13120,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13157,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13194,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13231,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13268,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13305,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13342,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13379,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13416,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13490,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13527,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13564,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13601,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13638,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13675,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13712,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13749,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13786,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13823,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13860,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13897,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13934,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13971,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14008,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14045,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14082,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14119,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14156,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14193,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14230,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14267,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14304,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14341,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14378,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14415,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14452,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14489,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14526,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14563,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14596,15 +13090,11 @@
         <v>-770124.4916315204</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14633,15 +13123,11 @@
         <v>-852397.8497116504</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14670,15 +13156,11 @@
         <v>-698968.2477116503</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14707,15 +13189,11 @@
         <v>-586807.5761116503</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14744,15 +13222,11 @@
         <v>-586807.5761116503</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14781,15 +13255,11 @@
         <v>-543401.6421116503</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14818,15 +13288,11 @@
         <v>-492474.3466116503</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14855,15 +13321,11 @@
         <v>-492474.3466116503</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14892,15 +13354,11 @@
         <v>-1477129.96021165</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14929,15 +13387,11 @@
         <v>-1303891.662711651</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14966,15 +13420,11 @@
         <v>-1250122.523211651</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15003,15 +13453,11 @@
         <v>-1250122.523211651</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15040,15 +13486,11 @@
         <v>-1149755.700311651</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15077,15 +13519,11 @@
         <v>-1045970.527811651</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15114,15 +13552,11 @@
         <v>-922575.1319116505</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15151,15 +13585,11 @@
         <v>-539855.6072447505</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15188,15 +13618,11 @@
         <v>-600935.4740447504</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15225,15 +13651,11 @@
         <v>-562588.9460447504</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15262,15 +13684,11 @@
         <v>-567093.3778447504</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15299,15 +13717,11 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15336,15 +13750,11 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15373,15 +13783,11 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15410,15 +13816,11 @@
         <v>-292619.4665447504</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15447,15 +13849,11 @@
         <v>-256660.8525447504</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15484,15 +13882,11 @@
         <v>-256660.8525447504</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15521,15 +13915,11 @@
         <v>-304578.8910447504</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15558,15 +13948,11 @@
         <v>-263818.2281447504</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15595,15 +13981,11 @@
         <v>-263818.2281447504</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15632,15 +14014,11 @@
         <v>-280418.7275447504</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15669,15 +14047,11 @@
         <v>-469134.3886447505</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15706,15 +14080,11 @@
         <v>-720907.4482447505</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15747,12 +14117,10 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
       <c r="M416" t="inlineStr"/>
     </row>
     <row r="417">
@@ -16207,7 +14575,7 @@
         <v>-2526622.22594545</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16339,7 +14707,7 @@
         <v>-2497715.03414818</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16372,7 +14740,7 @@
         <v>-2482208.84992675</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -22609,11 +20977,17 @@
         <v>-3660979.081909841</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>57.77</v>
+      </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22646,7 +21020,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22679,7 +21057,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22712,7 +21094,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22741,11 +21127,17 @@
         <v>-3617707.390609841</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>57.91</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22774,11 +21166,17 @@
         <v>-3586829.546709841</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>58.06</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22807,11 +21205,17 @@
         <v>-3563806.214261751</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>58.2</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22840,11 +21244,17 @@
         <v>-3596579.357961751</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>58.25</v>
+      </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22873,11 +21283,17 @@
         <v>-3594653.69636175</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>58.09</v>
+      </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22906,11 +21322,17 @@
         <v>-3594653.69636175</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>58.19</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22939,11 +21361,17 @@
         <v>-3577383.10486175</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>58.19</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22972,11 +21400,17 @@
         <v>-3585190.10756175</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>58.29</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23005,11 +21439,17 @@
         <v>-3584590.10756175</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>58.09</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23038,11 +21478,17 @@
         <v>-3574428.58666175</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>58.11</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23075,7 +21521,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23108,7 +21558,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23137,11 +21591,17 @@
         <v>-3546593.079461751</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>58.3</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23174,7 +21634,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23207,7 +21671,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23240,7 +21708,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23273,7 +21745,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23302,14 +21778,16 @@
         <v>-3375560.91376175</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr"/>
       <c r="M645" t="inlineStr"/>
     </row>
     <row r="646">
@@ -23335,7 +21813,7 @@
         <v>-3375560.91376175</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23368,7 +21846,7 @@
         <v>-3350813.87806175</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23533,7 +22011,7 @@
         <v>-3361032.82366175</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23566,7 +22044,7 @@
         <v>-3380103.19496175</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23995,7 +22473,7 @@
         <v>-3277944.93996175</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24028,7 +22506,7 @@
         <v>-3281722.57806175</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24061,7 +22539,7 @@
         <v>-3241239.51126175</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24094,7 +22572,7 @@
         <v>-3242434.21246175</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -27328,7 +25806,7 @@
         <v>-2676029.64066283</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27361,7 +25839,7 @@
         <v>-2704362.49276283</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -32344,7 +30822,7 @@
         <v>-1506548.886685969</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32377,7 +30855,7 @@
         <v>-1506548.886685969</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32410,7 +30888,7 @@
         <v>-1506548.886685969</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32443,7 +30921,7 @@
         <v>-1506548.886685969</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32476,7 +30954,7 @@
         <v>-1505759.742085969</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32509,7 +30987,7 @@
         <v>-1505759.742085969</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32542,7 +31020,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32575,7 +31053,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32608,7 +31086,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32641,7 +31119,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32674,7 +31152,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32707,7 +31185,7 @@
         <v>-1339368.378885969</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32740,7 +31218,7 @@
         <v>-1147718.511085969</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32773,7 +31251,7 @@
         <v>-1108710.765885969</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32806,7 +31284,7 @@
         <v>-1090200.029785969</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32839,7 +31317,7 @@
         <v>-1089389.394247709</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32872,7 +31350,7 @@
         <v>-1127547.608247709</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32905,7 +31383,7 @@
         <v>-1127415.224001519</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32938,7 +31416,7 @@
         <v>-1127415.224001519</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32971,7 +31449,7 @@
         <v>-1185248.025301519</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33004,7 +31482,7 @@
         <v>-1230884.533701519</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33037,7 +31515,7 @@
         <v>-1230884.533701519</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33070,7 +31548,7 @@
         <v>-1381771.362501519</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33103,7 +31581,7 @@
         <v>-1341647.635101519</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33136,7 +31614,7 @@
         <v>-1341637.635101519</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33169,7 +31647,7 @@
         <v>-1341527.638344589</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33202,7 +31680,7 @@
         <v>-1352182.113044589</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33235,7 +31713,7 @@
         <v>-1385558.706144589</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33268,7 +31746,7 @@
         <v>-1380400.447644589</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33301,7 +31779,7 @@
         <v>-1375628.493344588</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33334,7 +31812,7 @@
         <v>-1386282.968044588</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33367,7 +31845,7 @@
         <v>-1385776.968144588</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33400,7 +31878,7 @@
         <v>-1386239.968144588</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33433,7 +31911,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33466,7 +31944,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33499,7 +31977,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33532,7 +32010,7 @@
         <v>-1416820.699544589</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33565,7 +32043,7 @@
         <v>-1323978.687614439</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33598,7 +32076,7 @@
         <v>-1265272.987254489</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33631,7 +32109,7 @@
         <v>-1232655.458744589</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33664,7 +32142,7 @@
         <v>-1232655.458744589</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33697,7 +32175,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33730,7 +32208,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33763,7 +32241,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33796,7 +32274,7 @@
         <v>-1155548.904231139</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33829,7 +32307,7 @@
         <v>-1155548.904231139</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33862,7 +32340,7 @@
         <v>-1208516.775431139</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33895,7 +32373,7 @@
         <v>-1208506.775431139</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33928,7 +32406,7 @@
         <v>-1223341.967431139</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33961,7 +32439,7 @@
         <v>-1223532.943831139</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33994,7 +32472,7 @@
         <v>-1223477.949479039</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34027,7 +32505,7 @@
         <v>-1311539.101582619</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34060,7 +32538,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34093,7 +32571,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34126,7 +32604,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34159,7 +32637,7 @@
         <v>-1493653.791076169</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34192,7 +32670,7 @@
         <v>-1437668.537076169</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34225,7 +32703,7 @@
         <v>-1274572.200551749</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34258,7 +32736,7 @@
         <v>-1193489.546351749</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34291,7 +32769,7 @@
         <v>-1098756.107516769</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34324,7 +32802,7 @@
         <v>-1082888.422734499</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34357,7 +32835,7 @@
         <v>-931762.200434499</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34390,7 +32868,7 @@
         <v>-915065.345834499</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34423,7 +32901,7 @@
         <v>-854521.056234499</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34456,7 +32934,7 @@
         <v>-1006259.096534499</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34489,7 +32967,7 @@
         <v>-1006223.096534499</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34522,7 +33000,7 @@
         <v>-1065891.187534499</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34555,7 +33033,7 @@
         <v>-1074671.187534499</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34588,7 +33066,7 @@
         <v>-1074821.187534499</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34621,7 +33099,7 @@
         <v>-1064166.143124859</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34654,7 +33132,7 @@
         <v>-1077236.098724859</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34687,7 +33165,7 @@
         <v>-1061788.207724859</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34720,7 +33198,7 @@
         <v>-1027981.504324859</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34753,7 +33231,7 @@
         <v>-1027981.504324859</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34786,7 +33264,7 @@
         <v>-1035213.092024859</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34819,7 +33297,7 @@
         <v>-1060734.483784169</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34852,7 +33330,7 @@
         <v>-1082298.983184169</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34885,7 +33363,7 @@
         <v>-1082708.629884169</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34918,7 +33396,7 @@
         <v>-1075352.629884169</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34951,7 +33429,7 @@
         <v>-1076052.629884169</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34984,7 +33462,7 @@
         <v>-1184132.385284169</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35017,7 +33495,7 @@
         <v>-2312809.327884169</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35050,7 +33528,7 @@
         <v>-2319125.900584169</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35083,7 +33561,7 @@
         <v>-2319099.650584169</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35116,7 +33594,7 @@
         <v>-2342237.447084169</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35149,7 +33627,7 @@
         <v>-2317175.885984169</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35182,7 +33660,7 @@
         <v>-2279433.980418869</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35215,7 +33693,7 @@
         <v>-2285418.691759789</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35226,6 +33704,6 @@
       <c r="M1006" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>